--- a/HR Dataset.xlsx
+++ b/HR Dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soham\Desktop\Excel Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B26387-FA44-41BB-833E-9ACB643E7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" tabRatio="631" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="631" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI's" sheetId="2" r:id="rId1"/>
@@ -28,26 +29,26 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Maindata!$A$1:$AL$312</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataset.xlsxHRData1" hidden="1">HRData[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataset.xlsxHRData" hidden="1">HRData[]</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
     <definedName name="Slicer_ManagerName">#N/A</definedName>
     <definedName name="Slicer_Sex">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="123" r:id="rId14"/>
-    <pivotCache cacheId="100" r:id="rId15"/>
-    <pivotCache cacheId="102" r:id="rId16"/>
-    <pivotCache cacheId="104" r:id="rId17"/>
-    <pivotCache cacheId="109" r:id="rId18"/>
-    <pivotCache cacheId="111" r:id="rId19"/>
-    <pivotCache cacheId="113" r:id="rId20"/>
-    <pivotCache cacheId="115" r:id="rId21"/>
-    <pivotCache cacheId="117" r:id="rId22"/>
-    <pivotCache cacheId="119" r:id="rId23"/>
-    <pivotCache cacheId="121" r:id="rId24"/>
-    <pivotCache cacheId="107" r:id="rId25"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="4" r:id="rId18"/>
+    <pivotCache cacheId="5" r:id="rId19"/>
+    <pivotCache cacheId="6" r:id="rId20"/>
+    <pivotCache cacheId="7" r:id="rId21"/>
+    <pivotCache cacheId="8" r:id="rId22"/>
+    <pivotCache cacheId="9" r:id="rId23"/>
+    <pivotCache cacheId="10" r:id="rId24"/>
+    <pivotCache cacheId="11" r:id="rId25"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -80,6 +81,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,8 +90,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -97,11 +100,11 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_HR Dataset.xlsx!HRData" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_HR Dataset.xlsx!HRData" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="HRData" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataset.xlsxHRData1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataset.xlsxHRData"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1663,7 +1666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3218,12 +3221,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
-    <tableStyle name="SlicerStyleLight4 2" pivot="0" table="0" count="10">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="SlicerStyleLight4 2" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="46"/>
       <tableStyleElement type="headerRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="SlicerStyleLight5 2" pivot="0" table="0" count="10">
+    <tableStyle name="SlicerStyleLight5 2" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
     </tableStyle>
@@ -3746,7 +3749,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Employee count!PivotTable1</c:name>
+    <c:name>[HR Dataset.xlsx]Employee count!PivotTable1</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -3851,6 +3854,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3891,6 +3903,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4167,7 +4217,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Marital Desc!PivotTable10</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Marital Desc!PivotTable10</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4199,7 +4249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4275,6 +4324,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -4580,12 +4667,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Employee count!PivotTable1</c:name>
+    <c:name>[HR Dataset.xlsx]Employee count!PivotTable1</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4687,6 +4773,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4957,7 +5084,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Gender!PivotTable2</c:name>
+    <c:name>[HR Dataset.xlsx]Gender!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4992,7 +5119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5099,6 +5225,48 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -5188,7 +5356,60 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5310,12 +5531,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Department wise salary!PivotTable3</c:name>
+    <c:name>[HR Dataset.xlsx]Department wise salary!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5376,6 +5596,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5642,12 +5903,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Absences by Department!PivotTable4</c:name>
+    <c:name>[HR Dataset.xlsx]Absences by Department!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5708,6 +5968,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5978,12 +6279,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Recruitment source!PivotTable5</c:name>
+    <c:name>[HR Dataset.xlsx]Recruitment source!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6044,6 +6344,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6328,12 +6669,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Emp Satisfaction!PivotTable6</c:name>
+    <c:name>[HR Dataset.xlsx]Emp Satisfaction!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6487,7 +6827,6 @@
         <c:idx val="8"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6524,9 +6863,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6546,6 +6883,131 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6687,7 +7149,59 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6770,7 +7284,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6866,7 +7379,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Marital Status!PivotTable7</c:name>
+    <c:name>[HR Dataset.xlsx]Marital Status!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6901,7 +7414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6966,6 +7478,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -7230,7 +7783,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7326,12 +7878,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Department!PivotTable8</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Department!PivotTable8</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7392,6 +7943,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7662,12 +8254,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Mnagaer name!PivotTable9</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Mnagaer name!PivotTable9</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7728,6 +8319,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7979,7 +8611,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Department wise salary!PivotTable3</c:name>
+    <c:name>[HR Dataset.xlsx]Department wise salary!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8006,7 +8638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8085,6 +8716,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8357,12 +9026,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Marital Desc!PivotTable10</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Marital Desc!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8409,6 +9077,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -8708,7 +9417,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Gender!PivotTable2</c:name>
+    <c:name>[HR Dataset.xlsx]Gender!PivotTable2</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -8735,7 +9444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8931,7 +9639,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8966,9 +9673,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -9109,9 +9814,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9236,7 +9939,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Marital Status!PivotTable7</c:name>
+    <c:name>[HR Dataset.xlsx]Marital Status!PivotTable7</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -9268,7 +9971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9506,7 +10208,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -9539,9 +10240,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -9782,9 +10481,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9927,7 +10624,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Absences by Department!PivotTable4</c:name>
+    <c:name>[HR Dataset.xlsx]Absences by Department!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -9959,7 +10656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10047,6 +10743,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -10323,7 +11057,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Recruitment source!PivotTable5</c:name>
+    <c:name>[HR Dataset.xlsx]Recruitment source!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10355,7 +11089,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10428,6 +11161,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -10718,7 +11489,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Emp Satisfaction!PivotTable6</c:name>
+    <c:name>[HR Dataset.xlsx]Emp Satisfaction!PivotTable6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10750,7 +11521,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11101,7 +11871,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -11133,9 +11902,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -11409,9 +12176,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11495,7 +12260,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11590,7 +12354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Department!PivotTable8</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Department!PivotTable8</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -11622,7 +12386,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11701,7 +12464,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -11714,6 +12477,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11979,7 +12780,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[HR Dataset (2).xlsx]Attrition By Mnagaer name!PivotTable9</c:name>
+    <c:name>[HR Dataset.xlsx]Attrition By Mnagaer name!PivotTable9</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -12011,7 +12812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12084,6 +12884,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -23370,7 +24208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23424,7 +24268,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -23468,7 +24318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23535,7 +24391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23595,7 +24457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23655,7 +24523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23715,7 +24589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23775,7 +24655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23835,7 +24721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23899,7 +24791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23959,7 +24857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24019,7 +24923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!A7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24089,7 +24999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24155,7 +25071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!B7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24225,7 +25147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24287,7 +25215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!C7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24357,7 +25291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24419,7 +25359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!E7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24489,7 +25435,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24551,7 +25503,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!A16">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24621,7 +25579,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24683,7 +25647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!B16">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24753,7 +25723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24815,7 +25791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!C16">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24885,7 +25867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24947,7 +25935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'KPI''s'!D7">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25017,7 +26011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25081,7 +26081,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="33" name="Sex 1"/>
+            <xdr:cNvPr id="33" name="Sex 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25153,7 +26159,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="34" name="Year 1"/>
+            <xdr:cNvPr id="34" name="Year 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25225,7 +26237,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="35" name="Department 1"/>
+            <xdr:cNvPr id="35" name="Department 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25297,7 +26315,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="36" name="ManagerName 1"/>
+            <xdr:cNvPr id="36" name="ManagerName 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25367,7 +26391,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="37" name="Chart 36"/>
+        <xdr:cNvPr id="37" name="Chart 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25399,7 +26429,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="38" name="Chart 37"/>
+        <xdr:cNvPr id="38" name="Chart 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25431,7 +26467,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="39" name="Chart 38"/>
+        <xdr:cNvPr id="39" name="Chart 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25463,7 +26505,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="40" name="Chart 39"/>
+        <xdr:cNvPr id="40" name="Chart 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25495,7 +26543,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="41" name="Chart 40"/>
+        <xdr:cNvPr id="41" name="Chart 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25527,7 +26581,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="42" name="Chart 41"/>
+        <xdr:cNvPr id="42" name="Chart 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25559,7 +26619,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="43" name="Chart 42"/>
+        <xdr:cNvPr id="43" name="Chart 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25591,7 +26657,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="44" name="Chart 43"/>
+        <xdr:cNvPr id="44" name="Chart 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25623,7 +26695,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="45" name="Chart 44"/>
+        <xdr:cNvPr id="45" name="Chart 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25655,7 +26733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="46" name="Chart 45"/>
+        <xdr:cNvPr id="46" name="Chart 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -25679,20 +26763,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25714,20 +26804,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25749,20 +26845,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25784,20 +26886,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25814,22 +26922,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="ManagerName"/>
+            <xdr:cNvPr id="4" name="ManagerName">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25843,7 +26957,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -25853,80 +26967,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2276475" y="2105025"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Sex"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sex"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9725025" y="695325"/>
-              <a:ext cx="1828800" cy="1038225"/>
+              <a:off x="8470900" y="200025"/>
+              <a:ext cx="1866900" cy="2562225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25959,21 +27001,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Department"/>
+            <xdr:cNvPr id="5" name="Sex">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -25982,12 +27030,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department"/>
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sex"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -25997,8 +27045,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="104775" y="1409700"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="0" y="1114425"/>
+              <a:ext cx="1771650" cy="1279525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26030,22 +27078,106 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Year"/>
+            <xdr:cNvPr id="6" name="Department">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10452100" y="190500"/>
+              <a:ext cx="1914525" cy="2559050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Year">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -26059,7 +27191,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -26069,8 +27201,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7715250" y="1781175"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="6454774" y="206375"/>
+              <a:ext cx="1831975" cy="2562225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26107,20 +27239,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26142,20 +27280,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26178,19 +27322,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26213,19 +27363,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26247,20 +27403,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26282,20 +27444,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26314,7 +27482,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537621759257" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537621759257" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF7B000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Sex]" caption="Count of Sex" numFmtId="0" hierarchy="52" level="32767"/>
@@ -26536,7 +27704,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.53762048611" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.53762048611" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF77000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of MaritalDesc]" caption="Count of MaritalDesc" numFmtId="0" hierarchy="58" level="32767"/>
@@ -26761,7 +27929,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537621180556" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537621180556" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF79000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[RecruitmentSource].[RecruitmentSource]" caption="RecruitmentSource" numFmtId="0" hierarchy="31" level="1">
@@ -26990,7 +28158,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537617245369" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537617245369" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF6B000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Sum of Termd]" caption="Sum of Termd" numFmtId="0" hierarchy="42" level="32767"/>
@@ -27205,7 +28373,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45862.823320717594" backgroundQuery="1" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45862.823320717594" backgroundQuery="1" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="external" connectionId="1">
     <extLst>
       <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
@@ -27399,7 +28567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537615046298" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537615046298" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF64000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="28" level="1">
@@ -27625,7 +28793,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537615740737" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537615740737" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF66000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="28" level="1">
@@ -27851,7 +29019,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537616319445" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537616319445" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF68000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[MaritalDesc].[MaritalDesc]" caption="MaritalDesc" numFmtId="0" hierarchy="19" level="1">
@@ -28076,7 +29244,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537617592592" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537617592592" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF6D000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="28" level="1">
@@ -28302,7 +29470,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537618171293" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537618171293" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF6F000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[HRData].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="28" level="1">
@@ -28528,7 +29696,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537618634262" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537618634262" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF71000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Employee_Name]" caption="Count of Employee_Name" numFmtId="0" hierarchy="51" level="32767"/>
@@ -28754,7 +29922,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537619212962" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537619212962" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF73000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Count of EmpID]" caption="Count of EmpID" numFmtId="0" hierarchy="41" level="32767"/>
@@ -28973,7 +30141,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Soham" refreshedDate="45863.537619907409" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Soham" refreshedDate="45863.537619907409" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF75000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Average of Age]" caption="Average of Age" numFmtId="0" hierarchy="48" level="32767"/>
@@ -29192,7 +30360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="117" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000001000000}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -29296,12 +30464,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000009000000}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
@@ -29357,7 +30528,7 @@
     <dataField name="Sum of Termd" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
+    <chartFormat chart="2" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29450,12 +30621,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-00000A000000}" name="PivotTable9" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -29603,12 +30777,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-00000B000000}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -29744,12 +30921,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="115" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -29867,7 +31047,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="113" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000002000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -30061,12 +31241,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000003000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -30247,12 +31430,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000004000000}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -30392,12 +31578,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000005000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -30537,12 +31726,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000006000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
@@ -30703,12 +31895,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000007000000}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -30754,7 +31949,7 @@
   <dataFields count="1">
     <dataField name="Average of EmpSatisfaction" fld="1" subtotal="average" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="14">
     <chartFormat chart="3" format="16" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -30845,6 +32040,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="1" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotHierarchies count="59">
     <pivotHierarchy dragToData="1"/>
@@ -30920,12 +32187,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="119" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000008000000}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -31181,12 +32451,15 @@
         <x15:activeTabTopLevelEntity name="[HRData]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_ManagerName" sourceName="[HRData].[ManagerName]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_ManagerName" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="[HRData].[ManagerName]">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable2"/>
     <pivotTable tabId="9" name="PivotTable4"/>
@@ -31242,7 +32515,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Sex" sourceName="[HRData].[Sex]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sex" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="[HRData].[Sex]">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable2"/>
     <pivotTable tabId="9" name="PivotTable4"/>
@@ -31279,7 +32552,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Department" sourceName="[HRData].[Department]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Department" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="[HRData].[Department]">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable2"/>
     <pivotTable tabId="9" name="PivotTable4"/>
@@ -31320,7 +32593,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="[HRData].[Year]">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Year" xr10:uid="{00000000-0013-0000-FFFF-FFFF04000000}" sourceName="[HRData].[Year]">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable2"/>
     <pivotTable tabId="9" name="PivotTable4"/>
@@ -31368,65 +32641,65 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="ManagerName 1" cache="Slicer_ManagerName" caption="ManagerName" level="1" style="SlicerStyleLight5 2" rowHeight="241300"/>
-  <slicer name="Sex 1" cache="Slicer_Sex" caption="Sex" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
-  <slicer name="Department 1" cache="Slicer_Department" caption="Department" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
-  <slicer name="Year 1" cache="Slicer_Year" caption="Year" level="1" style="SlicerStyleLight5 2" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="ManagerName 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_ManagerName" caption="ManagerName" level="1" style="SlicerStyleLight5 2" rowHeight="241300"/>
+  <slicer name="Sex 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Sex" caption="Sex" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
+  <slicer name="Department 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Department" caption="Department" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
+  <slicer name="Year 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="Slicer_Year" caption="Year" level="1" style="SlicerStyleLight5 2" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="ManagerName" cache="Slicer_ManagerName" caption="ManagerName" level="1" rowHeight="241300"/>
-  <slicer name="Sex" cache="Slicer_Sex" caption="Sex" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
-  <slicer name="Department" cache="Slicer_Department" caption="Department" level="1" rowHeight="241300"/>
-  <slicer name="Year" cache="Slicer_Year" caption="Year" level="1" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="ManagerName" xr10:uid="{00000000-0014-0000-FFFF-FFFF05000000}" cache="Slicer_ManagerName" caption="ManagerName" level="1" rowHeight="241300"/>
+  <slicer name="Sex" xr10:uid="{00000000-0014-0000-FFFF-FFFF06000000}" cache="Slicer_Sex" caption="Sex" level="1" style="SlicerStyleLight4 2" rowHeight="241300"/>
+  <slicer name="Department" xr10:uid="{00000000-0014-0000-FFFF-FFFF07000000}" cache="Slicer_Department" caption="Department" level="1" rowHeight="241300"/>
+  <slicer name="Year" xr10:uid="{00000000-0014-0000-FFFF-FFFF08000000}" cache="Slicer_Year" caption="Year" level="1" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HRData" displayName="HRData" ref="A1:AL312" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
-  <autoFilter ref="A1:AL312"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="HRData" displayName="HRData" ref="A1:AL312" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="A1:AL312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="38">
-    <tableColumn id="1" name="Employee_Name" dataDxfId="37"/>
-    <tableColumn id="2" name="EmpID" dataDxfId="36"/>
-    <tableColumn id="3" name="MarriedID" dataDxfId="35"/>
-    <tableColumn id="4" name="MaritalStatusID" dataDxfId="34"/>
-    <tableColumn id="5" name="GenderID" dataDxfId="33"/>
-    <tableColumn id="6" name="EmpStatusID" dataDxfId="32"/>
-    <tableColumn id="7" name="DeptID" dataDxfId="31"/>
-    <tableColumn id="8" name="PerfScoreID" dataDxfId="30"/>
-    <tableColumn id="9" name="FromDiversityJobFairID" dataDxfId="29"/>
-    <tableColumn id="10" name="Salary" dataDxfId="28"/>
-    <tableColumn id="11" name="Termd" dataDxfId="27"/>
-    <tableColumn id="12" name="PositionID" dataDxfId="26"/>
-    <tableColumn id="13" name="Position" dataDxfId="25"/>
-    <tableColumn id="14" name="State" dataDxfId="24"/>
-    <tableColumn id="15" name="Zip" dataDxfId="23"/>
-    <tableColumn id="16" name="DOB" dataDxfId="22"/>
-    <tableColumn id="17" name="Age" dataDxfId="21"/>
-    <tableColumn id="18" name="Age Group" dataDxfId="20"/>
-    <tableColumn id="19" name="Sex" dataDxfId="19"/>
-    <tableColumn id="20" name="MaritalDesc" dataDxfId="18"/>
-    <tableColumn id="21" name="CitizenDesc" dataDxfId="17"/>
-    <tableColumn id="22" name="HispanicLatino" dataDxfId="16"/>
-    <tableColumn id="23" name="RaceDesc" dataDxfId="15"/>
-    <tableColumn id="24" name="DateofHire" dataDxfId="14"/>
-    <tableColumn id="25" name="Year" dataDxfId="13"/>
-    <tableColumn id="26" name="DateofTermination" dataDxfId="12"/>
-    <tableColumn id="27" name="TermReason" dataDxfId="11"/>
-    <tableColumn id="28" name="EmploymentStatus" dataDxfId="10"/>
-    <tableColumn id="29" name="Department" dataDxfId="9"/>
-    <tableColumn id="30" name="ManagerName" dataDxfId="8"/>
-    <tableColumn id="31" name="ManagerID" dataDxfId="7"/>
-    <tableColumn id="32" name="RecruitmentSource" dataDxfId="6"/>
-    <tableColumn id="33" name="PerformanceScore" dataDxfId="5"/>
-    <tableColumn id="34" name="EngagementSurvey" dataDxfId="4"/>
-    <tableColumn id="35" name="EmpSatisfaction" dataDxfId="3"/>
-    <tableColumn id="36" name="SpecialProjectsCount" dataDxfId="2"/>
-    <tableColumn id="37" name="LastPerformanceReview_Date" dataDxfId="1"/>
-    <tableColumn id="38" name="Absences" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Employee_Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EmpID" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MarriedID" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MaritalStatusID" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GenderID" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EmpStatusID" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DeptID" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PerfScoreID" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FromDiversityJobFairID" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Salary" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Termd" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PositionID" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Position" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="State" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Zip" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="DOB" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Age" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Age Group" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Sex" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="MaritalDesc" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="CitizenDesc" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="HispanicLatino" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="RaceDesc" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="DateofHire" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Year" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="DateofTermination" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="TermReason" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="EmploymentStatus" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Department" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="ManagerName" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="ManagerID" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="RecruitmentSource" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="PerformanceScore" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="EngagementSurvey" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="EmpSatisfaction" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="SpecialProjectsCount" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="LastPerformanceReview_Date" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Absences" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31694,23 +32967,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -31721,7 +32994,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>311</v>
       </c>
@@ -31732,7 +33005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>495</v>
       </c>
@@ -31749,7 +33022,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <f>GETPIVOTDATA("[Measures].[Count of EmpID]",$A$3)</f>
         <v>311</v>
@@ -31770,7 +33043,7 @@
         <v>33.440514469453376</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>500</v>
       </c>
@@ -31781,7 +33054,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>45.524115755627008</v>
       </c>
@@ -31792,7 +33065,7 @@
         <v>11.929260450160772</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>503</v>
       </c>
@@ -31803,7 +33076,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <f>GETPIVOTDATA("[Measures].[Average of Age]",$A$12)</f>
         <v>45.524115755627008</v>
@@ -31824,20 +33097,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -31845,7 +33118,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>509</v>
       </c>
@@ -31853,7 +33126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>54</v>
       </c>
@@ -31861,7 +33134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>140</v>
       </c>
@@ -31869,7 +33142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>74</v>
       </c>
@@ -31877,7 +33150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>125</v>
       </c>
@@ -31885,7 +33158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>301</v>
       </c>
@@ -31900,20 +33173,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -31921,7 +33194,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>71</v>
       </c>
@@ -31929,7 +33202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>68</v>
       </c>
@@ -31937,7 +33210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>62</v>
       </c>
@@ -31945,7 +33218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>507</v>
       </c>
@@ -31960,20 +33233,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -31981,7 +33254,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
@@ -31989,7 +33262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
@@ -31997,7 +33270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>136</v>
       </c>
@@ -32005,7 +33278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -32013,7 +33286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>77</v>
       </c>
@@ -32028,54 +33301,54 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AL312"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="2" customWidth="1"/>
     <col min="17" max="18" width="18" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" customWidth="1"/>
+    <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="23" max="23" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" style="2" customWidth="1"/>
     <col min="25" max="25" width="18" style="5" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7265625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="12.26953125" customWidth="1"/>
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="33" max="33" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.26953125" customWidth="1"/>
+    <col min="35" max="35" width="16.453125" customWidth="1"/>
+    <col min="36" max="36" width="20.7265625" customWidth="1"/>
     <col min="37" max="37" width="28" style="2" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32191,7 +33464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -32305,7 +33578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -32421,7 +33694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
@@ -32537,7 +33810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -32651,7 +33924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -32767,7 +34040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -32881,7 +34154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
@@ -32995,7 +34268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
@@ -33109,7 +34382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -33223,7 +34496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
@@ -33337,7 +34610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -33453,7 +34726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>91</v>
       </c>
@@ -33569,7 +34842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>93</v>
       </c>
@@ -33683,7 +34956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>96</v>
       </c>
@@ -33797,7 +35070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>99</v>
       </c>
@@ -33913,7 +35186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
@@ -34029,7 +35302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>104</v>
       </c>
@@ -34143,7 +35416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>105</v>
       </c>
@@ -34257,7 +35530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
@@ -34373,7 +35646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>110</v>
       </c>
@@ -34485,7 +35758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>112</v>
       </c>
@@ -34599,7 +35872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>113</v>
       </c>
@@ -34713,7 +35986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
@@ -34827,7 +36100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -34941,7 +36214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
@@ -35057,7 +36330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>119</v>
       </c>
@@ -35173,7 +36446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>123</v>
       </c>
@@ -35287,7 +36560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>127</v>
       </c>
@@ -35403,7 +36676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>131</v>
       </c>
@@ -35519,7 +36792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>132</v>
       </c>
@@ -35633,7 +36906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -35745,7 +37018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>135</v>
       </c>
@@ -35859,7 +37132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>137</v>
       </c>
@@ -35975,7 +37248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>142</v>
       </c>
@@ -36089,7 +37362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>143</v>
       </c>
@@ -36203,7 +37476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>144</v>
       </c>
@@ -36317,7 +37590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>147</v>
       </c>
@@ -36431,7 +37704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>148</v>
       </c>
@@ -36545,7 +37818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>149</v>
       </c>
@@ -36659,7 +37932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>150</v>
       </c>
@@ -36773,7 +38046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>151</v>
       </c>
@@ -36887,7 +38160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>153</v>
       </c>
@@ -37001,7 +38274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>154</v>
       </c>
@@ -37115,7 +38388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>156</v>
       </c>
@@ -37229,7 +38502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>157</v>
       </c>
@@ -37341,7 +38614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>158</v>
       </c>
@@ -37455,7 +38728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>160</v>
       </c>
@@ -37571,7 +38844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>162</v>
       </c>
@@ -37685,7 +38958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>164</v>
       </c>
@@ -37799,7 +39072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>166</v>
       </c>
@@ -37915,7 +39188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>167</v>
       </c>
@@ -38031,7 +39304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>168</v>
       </c>
@@ -38145,7 +39418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -38259,7 +39532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>170</v>
       </c>
@@ -38375,7 +39648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>171</v>
       </c>
@@ -38489,7 +39762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>172</v>
       </c>
@@ -38603,7 +39876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>174</v>
       </c>
@@ -38717,7 +39990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>175</v>
       </c>
@@ -38831,7 +40104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>176</v>
       </c>
@@ -38945,7 +40218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>177</v>
       </c>
@@ -39059,7 +40332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>179</v>
       </c>
@@ -39173,7 +40446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>182</v>
       </c>
@@ -39287,7 +40560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>183</v>
       </c>
@@ -39401,7 +40674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>184</v>
       </c>
@@ -39515,7 +40788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>185</v>
       </c>
@@ -39629,7 +40902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>186</v>
       </c>
@@ -39745,7 +41018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>187</v>
       </c>
@@ -39859,7 +41132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>188</v>
       </c>
@@ -39973,7 +41246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>191</v>
       </c>
@@ -40089,7 +41362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>193</v>
       </c>
@@ -40203,7 +41476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>194</v>
       </c>
@@ -40317,7 +41590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>197</v>
       </c>
@@ -40431,7 +41704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>198</v>
       </c>
@@ -40545,7 +41818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>201</v>
       </c>
@@ -40659,7 +41932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>202</v>
       </c>
@@ -40773,7 +42046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>203</v>
       </c>
@@ -40887,7 +42160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>204</v>
       </c>
@@ -41001,7 +42274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>206</v>
       </c>
@@ -41115,7 +42388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>208</v>
       </c>
@@ -41229,7 +42502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>209</v>
       </c>
@@ -41343,7 +42616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>210</v>
       </c>
@@ -41459,7 +42732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>212</v>
       </c>
@@ -41573,7 +42846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>213</v>
       </c>
@@ -41687,7 +42960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>214</v>
       </c>
@@ -41801,7 +43074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>215</v>
       </c>
@@ -41917,7 +43190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>216</v>
       </c>
@@ -42033,7 +43306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>218</v>
       </c>
@@ -42149,7 +43422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>219</v>
       </c>
@@ -42263,7 +43536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>220</v>
       </c>
@@ -42375,7 +43648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>221</v>
       </c>
@@ -42491,7 +43764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>222</v>
       </c>
@@ -42605,7 +43878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>223</v>
       </c>
@@ -42719,7 +43992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>225</v>
       </c>
@@ -42833,7 +44106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>226</v>
       </c>
@@ -42949,7 +44222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>227</v>
       </c>
@@ -43065,7 +44338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>228</v>
       </c>
@@ -43181,7 +44454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>230</v>
       </c>
@@ -43295,7 +44568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>232</v>
       </c>
@@ -43409,7 +44682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>236</v>
       </c>
@@ -43523,7 +44796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>237</v>
       </c>
@@ -43637,7 +44910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>238</v>
       </c>
@@ -43751,7 +45024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>239</v>
       </c>
@@ -43865,7 +45138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>240</v>
       </c>
@@ -43979,7 +45252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>241</v>
       </c>
@@ -44095,7 +45368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>242</v>
       </c>
@@ -44211,7 +45484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>244</v>
       </c>
@@ -44327,7 +45600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>245</v>
       </c>
@@ -44441,7 +45714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>246</v>
       </c>
@@ -44555,7 +45828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>248</v>
       </c>
@@ -44671,7 +45944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>249</v>
       </c>
@@ -44785,7 +46058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>250</v>
       </c>
@@ -44899,7 +46172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>251</v>
       </c>
@@ -45013,7 +46286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>252</v>
       </c>
@@ -45129,7 +46402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>253</v>
       </c>
@@ -45243,7 +46516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>254</v>
       </c>
@@ -45357,7 +46630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>255</v>
       </c>
@@ -45471,7 +46744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>256</v>
       </c>
@@ -45585,7 +46858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>258</v>
       </c>
@@ -45699,7 +46972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>259</v>
       </c>
@@ -45813,7 +47086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>260</v>
       </c>
@@ -45929,7 +47202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>261</v>
       </c>
@@ -46043,7 +47316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>262</v>
       </c>
@@ -46159,7 +47432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>264</v>
       </c>
@@ -46273,7 +47546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
@@ -46387,7 +47660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>266</v>
       </c>
@@ -46503,7 +47776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>267</v>
       </c>
@@ -46617,7 +47890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>268</v>
       </c>
@@ -46731,7 +48004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>269</v>
       </c>
@@ -46847,7 +48120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>270</v>
       </c>
@@ -46961,7 +48234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>272</v>
       </c>
@@ -47077,7 +48350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>273</v>
       </c>
@@ -47191,7 +48464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>274</v>
       </c>
@@ -47305,7 +48578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>277</v>
       </c>
@@ -47421,7 +48694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>279</v>
       </c>
@@ -47535,7 +48808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>280</v>
       </c>
@@ -47649,7 +48922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>281</v>
       </c>
@@ -47761,7 +49034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>282</v>
       </c>
@@ -47877,7 +49150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>283</v>
       </c>
@@ -47993,7 +49266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>284</v>
       </c>
@@ -48107,7 +49380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>285</v>
       </c>
@@ -48221,7 +49494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>286</v>
       </c>
@@ -48335,7 +49608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>287</v>
       </c>
@@ -48449,7 +49722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>288</v>
       </c>
@@ -48563,7 +49836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>289</v>
       </c>
@@ -48679,7 +49952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>290</v>
       </c>
@@ -48793,7 +50066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>291</v>
       </c>
@@ -48907,7 +50180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>292</v>
       </c>
@@ -49023,7 +50296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>293</v>
       </c>
@@ -49139,7 +50412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>296</v>
       </c>
@@ -49253,7 +50526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>297</v>
       </c>
@@ -49367,7 +50640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>299</v>
       </c>
@@ -49481,7 +50754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>302</v>
       </c>
@@ -49597,7 +50870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>303</v>
       </c>
@@ -49713,7 +50986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>304</v>
       </c>
@@ -49827,7 +51100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>305</v>
       </c>
@@ -49941,7 +51214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>306</v>
       </c>
@@ -50055,7 +51328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>308</v>
       </c>
@@ -50169,7 +51442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>309</v>
       </c>
@@ -50285,7 +51558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>310</v>
       </c>
@@ -50401,7 +51674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>311</v>
       </c>
@@ -50515,7 +51788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>312</v>
       </c>
@@ -50629,7 +51902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>313</v>
       </c>
@@ -50745,7 +52018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>314</v>
       </c>
@@ -50859,7 +52132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>316</v>
       </c>
@@ -50975,7 +52248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>317</v>
       </c>
@@ -51089,7 +52362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>319</v>
       </c>
@@ -51203,7 +52476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>320</v>
       </c>
@@ -51317,7 +52590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>322</v>
       </c>
@@ -51431,7 +52704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>323</v>
       </c>
@@ -51547,7 +52820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>324</v>
       </c>
@@ -51661,7 +52934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>325</v>
       </c>
@@ -51775,7 +53048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>326</v>
       </c>
@@ -51891,7 +53164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>327</v>
       </c>
@@ -52005,7 +53278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>328</v>
       </c>
@@ -52119,7 +53392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>329</v>
       </c>
@@ -52235,7 +53508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>330</v>
       </c>
@@ -52351,7 +53624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>331</v>
       </c>
@@ -52465,7 +53738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>332</v>
       </c>
@@ -52577,7 +53850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>333</v>
       </c>
@@ -52693,7 +53966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>334</v>
       </c>
@@ -52807,7 +54080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>335</v>
       </c>
@@ -52921,7 +54194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>336</v>
       </c>
@@ -53035,7 +54308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>337</v>
       </c>
@@ -53149,7 +54422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>338</v>
       </c>
@@ -53263,7 +54536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>339</v>
       </c>
@@ -53377,7 +54650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>340</v>
       </c>
@@ -53493,7 +54766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>341</v>
       </c>
@@ -53607,7 +54880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>342</v>
       </c>
@@ -53721,7 +54994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>345</v>
       </c>
@@ -53837,7 +55110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>346</v>
       </c>
@@ -53951,7 +55224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>347</v>
       </c>
@@ -54065,7 +55338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>349</v>
       </c>
@@ -54179,7 +55452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>350</v>
       </c>
@@ -54293,7 +55566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>351</v>
       </c>
@@ -54407,7 +55680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>352</v>
       </c>
@@ -54521,7 +55794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>353</v>
       </c>
@@ -54635,7 +55908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>354</v>
       </c>
@@ -54749,7 +56022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>355</v>
       </c>
@@ -54863,7 +56136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>356</v>
       </c>
@@ -54979,7 +56252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>357</v>
       </c>
@@ -55095,7 +56368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>358</v>
       </c>
@@ -55209,7 +56482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>359</v>
       </c>
@@ -55323,7 +56596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>360</v>
       </c>
@@ -55437,7 +56710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>362</v>
       </c>
@@ -55551,7 +56824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>363</v>
       </c>
@@ -55665,7 +56938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>364</v>
       </c>
@@ -55781,7 +57054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>365</v>
       </c>
@@ -55897,7 +57170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>366</v>
       </c>
@@ -56011,7 +57284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>368</v>
       </c>
@@ -56125,7 +57398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>369</v>
       </c>
@@ -56239,7 +57512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>370</v>
       </c>
@@ -56353,7 +57626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>372</v>
       </c>
@@ -56469,7 +57742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>373</v>
       </c>
@@ -56585,7 +57858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>374</v>
       </c>
@@ -56701,7 +57974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>375</v>
       </c>
@@ -56817,7 +58090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>376</v>
       </c>
@@ -56933,7 +58206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>377</v>
       </c>
@@ -57049,7 +58322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>379</v>
       </c>
@@ -57165,7 +58438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>380</v>
       </c>
@@ -57281,7 +58554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>381</v>
       </c>
@@ -57395,7 +58668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>382</v>
       </c>
@@ -57509,7 +58782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>383</v>
       </c>
@@ -57625,7 +58898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>384</v>
       </c>
@@ -57739,7 +59012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>385</v>
       </c>
@@ -57853,7 +59126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>387</v>
       </c>
@@ -57969,7 +59242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>388</v>
       </c>
@@ -58083,7 +59356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>389</v>
       </c>
@@ -58199,7 +59472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>390</v>
       </c>
@@ -58315,7 +59588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>391</v>
       </c>
@@ -58429,7 +59702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>392</v>
       </c>
@@ -58545,7 +59818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>393</v>
       </c>
@@ -58659,7 +59932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>395</v>
       </c>
@@ -58775,7 +60048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>396</v>
       </c>
@@ -58887,7 +60160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>397</v>
       </c>
@@ -59003,7 +60276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>398</v>
       </c>
@@ -59119,7 +60392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>399</v>
       </c>
@@ -59235,7 +60508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>400</v>
       </c>
@@ -59351,7 +60624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>401</v>
       </c>
@@ -59465,7 +60738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>402</v>
       </c>
@@ -59579,7 +60852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>403</v>
       </c>
@@ -59695,7 +60968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>405</v>
       </c>
@@ -59809,7 +61082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>407</v>
       </c>
@@ -59923,7 +61196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>408</v>
       </c>
@@ -60039,7 +61312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>409</v>
       </c>
@@ -60153,7 +61426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>411</v>
       </c>
@@ -60269,7 +61542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>412</v>
       </c>
@@ -60383,7 +61656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>413</v>
       </c>
@@ -60497,7 +61770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>414</v>
       </c>
@@ -60613,7 +61886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>415</v>
       </c>
@@ -60727,7 +62000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>416</v>
       </c>
@@ -60843,7 +62116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>418</v>
       </c>
@@ -60957,7 +62230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>419</v>
       </c>
@@ -61069,7 +62342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>420</v>
       </c>
@@ -61183,7 +62456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>421</v>
       </c>
@@ -61297,7 +62570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>422</v>
       </c>
@@ -61411,7 +62684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>423</v>
       </c>
@@ -61525,7 +62798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>424</v>
       </c>
@@ -61641,7 +62914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>425</v>
       </c>
@@ -61755,7 +63028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>426</v>
       </c>
@@ -61869,7 +63142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>427</v>
       </c>
@@ -61985,7 +63258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>428</v>
       </c>
@@ -62099,7 +63372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>429</v>
       </c>
@@ -62213,7 +63486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>430</v>
       </c>
@@ -62327,7 +63600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>431</v>
       </c>
@@ -62441,7 +63714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>432</v>
       </c>
@@ -62555,7 +63828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>433</v>
       </c>
@@ -62671,7 +63944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>434</v>
       </c>
@@ -62785,7 +64058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>435</v>
       </c>
@@ -62899,7 +64172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>437</v>
       </c>
@@ -63013,7 +64286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>438</v>
       </c>
@@ -63127,7 +64400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>439</v>
       </c>
@@ -63241,7 +64514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>441</v>
       </c>
@@ -63355,7 +64628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>442</v>
       </c>
@@ -63469,7 +64742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>443</v>
       </c>
@@ -63583,7 +64856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>444</v>
       </c>
@@ -63697,7 +64970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>445</v>
       </c>
@@ -63811,7 +65084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>446</v>
       </c>
@@ -63927,7 +65200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>447</v>
       </c>
@@ -64043,7 +65316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>448</v>
       </c>
@@ -64157,7 +65430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>450</v>
       </c>
@@ -64273,7 +65546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>451</v>
       </c>
@@ -64389,7 +65662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>452</v>
       </c>
@@ -64503,7 +65776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>453</v>
       </c>
@@ -64617,7 +65890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>455</v>
       </c>
@@ -64731,7 +66004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>456</v>
       </c>
@@ -64847,7 +66120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>457</v>
       </c>
@@ -64963,7 +66236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>458</v>
       </c>
@@ -65079,7 +66352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>459</v>
       </c>
@@ -65193,7 +66466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>460</v>
       </c>
@@ -65307,7 +66580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>462</v>
       </c>
@@ -65423,7 +66696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>463</v>
       </c>
@@ -65537,7 +66810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>464</v>
       </c>
@@ -65651,7 +66924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>466</v>
       </c>
@@ -65767,7 +67040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>467</v>
       </c>
@@ -65883,7 +67156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>469</v>
       </c>
@@ -65997,7 +67270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>470</v>
       </c>
@@ -66111,7 +67384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>471</v>
       </c>
@@ -66227,7 +67500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>472</v>
       </c>
@@ -66343,7 +67616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>473</v>
       </c>
@@ -66457,7 +67730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>474</v>
       </c>
@@ -66571,7 +67844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>475</v>
       </c>
@@ -66687,7 +67960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>476</v>
       </c>
@@ -66803,7 +68076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>477</v>
       </c>
@@ -66919,7 +68192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>478</v>
       </c>
@@ -67035,7 +68308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>479</v>
       </c>
@@ -67151,7 +68424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>480</v>
       </c>
@@ -67265,7 +68538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>481</v>
       </c>
@@ -67379,7 +68652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>482</v>
       </c>
@@ -67495,7 +68768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>483</v>
       </c>
@@ -67609,7 +68882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>485</v>
       </c>
@@ -67723,7 +68996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="s">
         <v>486</v>
       </c>
@@ -67847,14 +69120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -67869,20 +69142,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -67890,7 +69163,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>301</v>
       </c>
@@ -67898,7 +69171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>125</v>
       </c>
@@ -67906,7 +69179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>74</v>
       </c>
@@ -67914,7 +69187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>140</v>
       </c>
@@ -67922,7 +69195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>54</v>
       </c>
@@ -67930,7 +69203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>509</v>
       </c>
@@ -67945,20 +69218,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -67966,7 +69239,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>60</v>
       </c>
@@ -67974,7 +69247,7 @@
         <v>0.56591639871382637</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>510</v>
       </c>
@@ -67997,20 +69270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -68018,7 +69291,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>125</v>
       </c>
@@ -68026,7 +69299,7 @@
         <v>71791.888888888891</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>301</v>
       </c>
@@ -68034,7 +69307,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -68042,7 +69315,7 @@
         <v>97064.639999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>509</v>
       </c>
@@ -68050,7 +69323,7 @@
         <v>59953.545454545456</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>140</v>
       </c>
@@ -68058,7 +69331,7 @@
         <v>69061.258064516136</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>74</v>
       </c>
@@ -68073,20 +69346,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -68094,7 +69367,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>125</v>
       </c>
@@ -68102,7 +69375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>301</v>
       </c>
@@ -68110,7 +69383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -68118,7 +69391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>509</v>
       </c>
@@ -68126,7 +69399,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>140</v>
       </c>
@@ -68134,7 +69407,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>74</v>
       </c>
@@ -68149,20 +69422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -68170,7 +69443,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>56</v>
       </c>
@@ -68178,7 +69451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>47</v>
       </c>
@@ -68186,7 +69459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>69</v>
       </c>
@@ -68194,7 +69467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>79</v>
       </c>
@@ -68202,7 +69475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>83</v>
       </c>
@@ -68210,7 +69483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>116</v>
       </c>
@@ -68218,7 +69491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>200</v>
       </c>
@@ -68226,7 +69499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>235</v>
       </c>
@@ -68234,7 +69507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>100</v>
       </c>
@@ -68249,20 +69522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -68270,7 +69543,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>125</v>
       </c>
@@ -68278,7 +69551,7 @@
         <v>0.91386593204775013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>301</v>
       </c>
@@ -68286,7 +69559,7 @@
         <v>0.77107438016528917</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
@@ -68294,7 +69567,7 @@
         <v>1.0178181818181817</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>509</v>
       </c>
@@ -68302,7 +69575,7 @@
         <v>0.99243544624144886</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>140</v>
       </c>
@@ -68310,7 +69583,7 @@
         <v>1.0363902959210876</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>74</v>
       </c>
@@ -68325,20 +69598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>506</v>
       </c>
@@ -68346,7 +69619,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
@@ -68354,7 +69627,7 @@
         <v>9.6463022508038579E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
@@ -68362,7 +69635,7 @@
         <v>0.3987138263665595</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>136</v>
       </c>
@@ -68370,7 +69643,7 @@
         <v>3.8585209003215437E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -68378,7 +69651,7 @@
         <v>0.44051446945337619</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>77</v>
       </c>
